--- a/backend/web/samples/Universitie-Programs.xlsx
+++ b/backend/web/samples/Universitie-Programs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23023"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23107"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75DC4D13-6545-404D-B55D-E15BEFD54026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19F87F0C-5D3B-424E-838B-890BC7E72477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>Program Name</t>
   </si>
@@ -114,6 +114,9 @@
     <t>ملاحظات ٢</t>
   </si>
   <si>
+    <t>Start Dates</t>
+  </si>
+  <si>
     <t>Program one</t>
   </si>
   <si>
@@ -138,6 +141,9 @@
     <t>Day</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>YES</t>
   </si>
   <si>
@@ -177,6 +183,9 @@
     <t>ملاحظات ٢ ١</t>
   </si>
   <si>
+    <t>JAN,FEB,MAR,APR</t>
+  </si>
+  <si>
     <t>Program two</t>
   </si>
   <si>
@@ -232,6 +241,9 @@
   </si>
   <si>
     <t>ملاحظات ٢ ٢</t>
+  </si>
+  <si>
+    <t>JAN,FEB,MAR,APR,MAY,JUN,JUL,AUG</t>
   </si>
 </sst>
 </file>
@@ -612,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -641,10 +653,12 @@
     <col min="21" max="21" width="22.28515625" customWidth="1"/>
     <col min="22" max="22" width="19.85546875" customWidth="1"/>
     <col min="23" max="24" width="27.140625" customWidth="1"/>
-    <col min="25" max="67" width="9.140625"/>
+    <col min="25" max="28" width="9.140625"/>
+    <col min="29" max="29" width="19.5703125" customWidth="1"/>
+    <col min="30" max="67" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1">
+    <row r="1" spans="1:29" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,58 +743,61 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J2" s="3">
         <v>44036</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L2" s="3">
         <v>44128</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R2">
         <v>5000</v>
@@ -792,81 +809,84 @@
         <v>150</v>
       </c>
       <c r="U2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="V2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="W2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Y2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AB2" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:29">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J3" s="3">
         <v>44098</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L3" s="3">
         <v>44189</v>
       </c>
       <c r="M3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="R3">
         <v>1000</v>
@@ -878,28 +898,31 @@
         <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="V3" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Y3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Z3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AA3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AB3" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/backend/web/samples/Universitie-Programs.xlsx
+++ b/backend/web/samples/Universitie-Programs.xlsx
@@ -1,34 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23107"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19F87F0C-5D3B-424E-838B-890BC7E72477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <workbookPr/>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
   <si>
     <t>Program Name</t>
   </si>
@@ -42,9 +25,6 @@
     <t>Major</t>
   </si>
   <si>
-    <t>Medium of study</t>
-  </si>
-  <si>
     <t>Degree</t>
   </si>
   <si>
@@ -129,9 +109,6 @@
     <t>Major1</t>
   </si>
   <si>
-    <t>Med 1</t>
-  </si>
-  <si>
     <t>Degree 1</t>
   </si>
   <si>
@@ -196,9 +173,6 @@
   </si>
   <si>
     <t>Major2</t>
-  </si>
-  <si>
-    <t>Med 2</t>
   </si>
   <si>
     <t>Degree 2</t>
@@ -249,34 +223,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -284,64 +254,61 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="4472C4"/>
@@ -365,113 +332,19 @@
         <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="0563C1"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,57 +485,47 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="9.140625"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
-    <col min="9" max="10" width="23.42578125" customWidth="1"/>
-    <col min="11" max="11" width="26.28515625" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" customWidth="1"/>
-    <col min="13" max="13" width="30.5703125" customWidth="1"/>
-    <col min="14" max="14" width="22.85546875" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" customWidth="1"/>
-    <col min="17" max="17" width="9.140625"/>
-    <col min="18" max="18" width="16.28515625" customWidth="1"/>
-    <col min="19" max="20" width="9.140625"/>
-    <col min="21" max="21" width="22.28515625" customWidth="1"/>
-    <col min="22" max="22" width="19.85546875" customWidth="1"/>
-    <col min="23" max="24" width="27.140625" customWidth="1"/>
-    <col min="25" max="28" width="9.140625"/>
-    <col min="29" max="29" width="19.5703125" customWidth="1"/>
-    <col min="30" max="67" width="9.140625"/>
+    <col customWidth="1" min="1" max="1" width="20.43"/>
+    <col customWidth="1" min="2" max="2" width="9.14"/>
+    <col customWidth="1" min="3" max="3" width="20.43"/>
+    <col customWidth="1" min="4" max="5" width="9.14"/>
+    <col customWidth="1" min="6" max="6" width="19.43"/>
+    <col customWidth="1" min="7" max="7" width="22.86"/>
+    <col customWidth="1" min="8" max="9" width="23.43"/>
+    <col customWidth="1" min="10" max="10" width="26.29"/>
+    <col customWidth="1" min="11" max="11" width="23.43"/>
+    <col customWidth="1" min="12" max="12" width="30.57"/>
+    <col customWidth="1" min="13" max="13" width="22.86"/>
+    <col customWidth="1" min="14" max="14" width="21.57"/>
+    <col customWidth="1" min="15" max="15" width="22.14"/>
+    <col customWidth="1" min="16" max="16" width="9.14"/>
+    <col customWidth="1" min="17" max="17" width="16.29"/>
+    <col customWidth="1" min="18" max="19" width="9.14"/>
+    <col customWidth="1" min="20" max="20" width="22.29"/>
+    <col customWidth="1" min="21" max="21" width="19.86"/>
+    <col customWidth="1" min="22" max="23" width="27.14"/>
+    <col customWidth="1" min="24" max="27" width="9.14"/>
+    <col customWidth="1" min="28" max="28" width="19.57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -683,13 +546,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -719,218 +582,1208 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+    </row>
+    <row r="2" ht="12.75" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="5">
+        <v>44036.0</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="5">
+        <v>44128.0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>5000.0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>25000.0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>150.0</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:29">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" s="3">
-        <v>44036</v>
-      </c>
-      <c r="K2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" s="3">
-        <v>44128</v>
-      </c>
-      <c r="M2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2">
-        <v>5000</v>
-      </c>
-      <c r="S2">
-        <v>25000</v>
-      </c>
-      <c r="T2">
-        <v>150</v>
-      </c>
-      <c r="U2" t="s">
-        <v>43</v>
-      </c>
-      <c r="V2" t="s">
-        <v>44</v>
-      </c>
-      <c r="W2" t="s">
+    <row r="3" ht="12.75" customHeight="1">
+      <c r="A3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1.0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="5">
+        <v>44098.0</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="5">
+        <v>44189.0</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1000.0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>30000.0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="Y3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>51</v>
+      <c r="AA3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
-      <c r="A3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="3">
-        <v>44098</v>
-      </c>
-      <c r="K3" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="3">
-        <v>44189</v>
-      </c>
-      <c r="M3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
-      </c>
-      <c r="P3" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R3">
-        <v>1000</v>
-      </c>
-      <c r="S3">
-        <v>30000</v>
-      </c>
-      <c r="T3">
-        <v>60</v>
-      </c>
-      <c r="U3" t="s">
-        <v>65</v>
-      </c>
-      <c r="V3" t="s">
-        <v>66</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>71</v>
-      </c>
-    </row>
+    <row r="4" ht="12.75" customHeight="1"/>
+    <row r="5" ht="12.75" customHeight="1"/>
+    <row r="6" ht="12.75" customHeight="1"/>
+    <row r="7" ht="12.75" customHeight="1"/>
+    <row r="8" ht="12.75" customHeight="1"/>
+    <row r="9" ht="12.75" customHeight="1"/>
+    <row r="10" ht="12.75" customHeight="1"/>
+    <row r="11" ht="12.75" customHeight="1"/>
+    <row r="12" ht="12.75" customHeight="1"/>
+    <row r="13" ht="12.75" customHeight="1"/>
+    <row r="14" ht="12.75" customHeight="1"/>
+    <row r="15" ht="12.75" customHeight="1"/>
+    <row r="16" ht="12.75" customHeight="1"/>
+    <row r="17" ht="12.75" customHeight="1"/>
+    <row r="18" ht="12.75" customHeight="1"/>
+    <row r="19" ht="12.75" customHeight="1"/>
+    <row r="20" ht="12.75" customHeight="1"/>
+    <row r="21" ht="12.75" customHeight="1"/>
+    <row r="22" ht="12.75" customHeight="1"/>
+    <row r="23" ht="12.75" customHeight="1"/>
+    <row r="24" ht="12.75" customHeight="1"/>
+    <row r="25" ht="12.75" customHeight="1"/>
+    <row r="26" ht="12.75" customHeight="1"/>
+    <row r="27" ht="12.75" customHeight="1"/>
+    <row r="28" ht="12.75" customHeight="1"/>
+    <row r="29" ht="12.75" customHeight="1"/>
+    <row r="30" ht="12.75" customHeight="1"/>
+    <row r="31" ht="12.75" customHeight="1"/>
+    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="33" ht="12.75" customHeight="1"/>
+    <row r="34" ht="12.75" customHeight="1"/>
+    <row r="35" ht="12.75" customHeight="1"/>
+    <row r="36" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="38" ht="12.75" customHeight="1"/>
+    <row r="39" ht="12.75" customHeight="1"/>
+    <row r="40" ht="12.75" customHeight="1"/>
+    <row r="41" ht="12.75" customHeight="1"/>
+    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="43" ht="12.75" customHeight="1"/>
+    <row r="44" ht="12.75" customHeight="1"/>
+    <row r="45" ht="12.75" customHeight="1"/>
+    <row r="46" ht="12.75" customHeight="1"/>
+    <row r="47" ht="12.75" customHeight="1"/>
+    <row r="48" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1"/>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1"/>
+    <row r="56" ht="12.75" customHeight="1"/>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1"/>
+    <row r="59" ht="12.75" customHeight="1"/>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1"/>
+    <row r="62" ht="12.75" customHeight="1"/>
+    <row r="63" ht="12.75" customHeight="1"/>
+    <row r="64" ht="12.75" customHeight="1"/>
+    <row r="65" ht="12.75" customHeight="1"/>
+    <row r="66" ht="12.75" customHeight="1"/>
+    <row r="67" ht="12.75" customHeight="1"/>
+    <row r="68" ht="12.75" customHeight="1"/>
+    <row r="69" ht="12.75" customHeight="1"/>
+    <row r="70" ht="12.75" customHeight="1"/>
+    <row r="71" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1"/>
+    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="74" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1"/>
+    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="77" ht="12.75" customHeight="1"/>
+    <row r="78" ht="12.75" customHeight="1"/>
+    <row r="79" ht="12.75" customHeight="1"/>
+    <row r="80" ht="12.75" customHeight="1"/>
+    <row r="81" ht="12.75" customHeight="1"/>
+    <row r="82" ht="12.75" customHeight="1"/>
+    <row r="83" ht="12.75" customHeight="1"/>
+    <row r="84" ht="12.75" customHeight="1"/>
+    <row r="85" ht="12.75" customHeight="1"/>
+    <row r="86" ht="12.75" customHeight="1"/>
+    <row r="87" ht="12.75" customHeight="1"/>
+    <row r="88" ht="12.75" customHeight="1"/>
+    <row r="89" ht="12.75" customHeight="1"/>
+    <row r="90" ht="12.75" customHeight="1"/>
+    <row r="91" ht="12.75" customHeight="1"/>
+    <row r="92" ht="12.75" customHeight="1"/>
+    <row r="93" ht="12.75" customHeight="1"/>
+    <row r="94" ht="12.75" customHeight="1"/>
+    <row r="95" ht="12.75" customHeight="1"/>
+    <row r="96" ht="12.75" customHeight="1"/>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
+    <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
+    <row r="123" ht="12.75" customHeight="1"/>
+    <row r="124" ht="12.75" customHeight="1"/>
+    <row r="125" ht="12.75" customHeight="1"/>
+    <row r="126" ht="12.75" customHeight="1"/>
+    <row r="127" ht="12.75" customHeight="1"/>
+    <row r="128" ht="12.75" customHeight="1"/>
+    <row r="129" ht="12.75" customHeight="1"/>
+    <row r="130" ht="12.75" customHeight="1"/>
+    <row r="131" ht="12.75" customHeight="1"/>
+    <row r="132" ht="12.75" customHeight="1"/>
+    <row r="133" ht="12.75" customHeight="1"/>
+    <row r="134" ht="12.75" customHeight="1"/>
+    <row r="135" ht="12.75" customHeight="1"/>
+    <row r="136" ht="12.75" customHeight="1"/>
+    <row r="137" ht="12.75" customHeight="1"/>
+    <row r="138" ht="12.75" customHeight="1"/>
+    <row r="139" ht="12.75" customHeight="1"/>
+    <row r="140" ht="12.75" customHeight="1"/>
+    <row r="141" ht="12.75" customHeight="1"/>
+    <row r="142" ht="12.75" customHeight="1"/>
+    <row r="143" ht="12.75" customHeight="1"/>
+    <row r="144" ht="12.75" customHeight="1"/>
+    <row r="145" ht="12.75" customHeight="1"/>
+    <row r="146" ht="12.75" customHeight="1"/>
+    <row r="147" ht="12.75" customHeight="1"/>
+    <row r="148" ht="12.75" customHeight="1"/>
+    <row r="149" ht="12.75" customHeight="1"/>
+    <row r="150" ht="12.75" customHeight="1"/>
+    <row r="151" ht="12.75" customHeight="1"/>
+    <row r="152" ht="12.75" customHeight="1"/>
+    <row r="153" ht="12.75" customHeight="1"/>
+    <row r="154" ht="12.75" customHeight="1"/>
+    <row r="155" ht="12.75" customHeight="1"/>
+    <row r="156" ht="12.75" customHeight="1"/>
+    <row r="157" ht="12.75" customHeight="1"/>
+    <row r="158" ht="12.75" customHeight="1"/>
+    <row r="159" ht="12.75" customHeight="1"/>
+    <row r="160" ht="12.75" customHeight="1"/>
+    <row r="161" ht="12.75" customHeight="1"/>
+    <row r="162" ht="12.75" customHeight="1"/>
+    <row r="163" ht="12.75" customHeight="1"/>
+    <row r="164" ht="12.75" customHeight="1"/>
+    <row r="165" ht="12.75" customHeight="1"/>
+    <row r="166" ht="12.75" customHeight="1"/>
+    <row r="167" ht="12.75" customHeight="1"/>
+    <row r="168" ht="12.75" customHeight="1"/>
+    <row r="169" ht="12.75" customHeight="1"/>
+    <row r="170" ht="12.75" customHeight="1"/>
+    <row r="171" ht="12.75" customHeight="1"/>
+    <row r="172" ht="12.75" customHeight="1"/>
+    <row r="173" ht="12.75" customHeight="1"/>
+    <row r="174" ht="12.75" customHeight="1"/>
+    <row r="175" ht="12.75" customHeight="1"/>
+    <row r="176" ht="12.75" customHeight="1"/>
+    <row r="177" ht="12.75" customHeight="1"/>
+    <row r="178" ht="12.75" customHeight="1"/>
+    <row r="179" ht="12.75" customHeight="1"/>
+    <row r="180" ht="12.75" customHeight="1"/>
+    <row r="181" ht="12.75" customHeight="1"/>
+    <row r="182" ht="12.75" customHeight="1"/>
+    <row r="183" ht="12.75" customHeight="1"/>
+    <row r="184" ht="12.75" customHeight="1"/>
+    <row r="185" ht="12.75" customHeight="1"/>
+    <row r="186" ht="12.75" customHeight="1"/>
+    <row r="187" ht="12.75" customHeight="1"/>
+    <row r="188" ht="12.75" customHeight="1"/>
+    <row r="189" ht="12.75" customHeight="1"/>
+    <row r="190" ht="12.75" customHeight="1"/>
+    <row r="191" ht="12.75" customHeight="1"/>
+    <row r="192" ht="12.75" customHeight="1"/>
+    <row r="193" ht="12.75" customHeight="1"/>
+    <row r="194" ht="12.75" customHeight="1"/>
+    <row r="195" ht="12.75" customHeight="1"/>
+    <row r="196" ht="12.75" customHeight="1"/>
+    <row r="197" ht="12.75" customHeight="1"/>
+    <row r="198" ht="12.75" customHeight="1"/>
+    <row r="199" ht="12.75" customHeight="1"/>
+    <row r="200" ht="12.75" customHeight="1"/>
+    <row r="201" ht="12.75" customHeight="1"/>
+    <row r="202" ht="12.75" customHeight="1"/>
+    <row r="203" ht="12.75" customHeight="1"/>
+    <row r="204" ht="12.75" customHeight="1"/>
+    <row r="205" ht="12.75" customHeight="1"/>
+    <row r="206" ht="12.75" customHeight="1"/>
+    <row r="207" ht="12.75" customHeight="1"/>
+    <row r="208" ht="12.75" customHeight="1"/>
+    <row r="209" ht="12.75" customHeight="1"/>
+    <row r="210" ht="12.75" customHeight="1"/>
+    <row r="211" ht="12.75" customHeight="1"/>
+    <row r="212" ht="12.75" customHeight="1"/>
+    <row r="213" ht="12.75" customHeight="1"/>
+    <row r="214" ht="12.75" customHeight="1"/>
+    <row r="215" ht="12.75" customHeight="1"/>
+    <row r="216" ht="12.75" customHeight="1"/>
+    <row r="217" ht="12.75" customHeight="1"/>
+    <row r="218" ht="12.75" customHeight="1"/>
+    <row r="219" ht="12.75" customHeight="1"/>
+    <row r="220" ht="12.75" customHeight="1"/>
+    <row r="221" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1"/>
+    <row r="223" ht="12.75" customHeight="1"/>
+    <row r="224" ht="12.75" customHeight="1"/>
+    <row r="225" ht="12.75" customHeight="1"/>
+    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="227" ht="12.75" customHeight="1"/>
+    <row r="228" ht="12.75" customHeight="1"/>
+    <row r="229" ht="12.75" customHeight="1"/>
+    <row r="230" ht="12.75" customHeight="1"/>
+    <row r="231" ht="12.75" customHeight="1"/>
+    <row r="232" ht="12.75" customHeight="1"/>
+    <row r="233" ht="12.75" customHeight="1"/>
+    <row r="234" ht="12.75" customHeight="1"/>
+    <row r="235" ht="12.75" customHeight="1"/>
+    <row r="236" ht="12.75" customHeight="1"/>
+    <row r="237" ht="12.75" customHeight="1"/>
+    <row r="238" ht="12.75" customHeight="1"/>
+    <row r="239" ht="12.75" customHeight="1"/>
+    <row r="240" ht="12.75" customHeight="1"/>
+    <row r="241" ht="12.75" customHeight="1"/>
+    <row r="242" ht="12.75" customHeight="1"/>
+    <row r="243" ht="12.75" customHeight="1"/>
+    <row r="244" ht="12.75" customHeight="1"/>
+    <row r="245" ht="12.75" customHeight="1"/>
+    <row r="246" ht="12.75" customHeight="1"/>
+    <row r="247" ht="12.75" customHeight="1"/>
+    <row r="248" ht="12.75" customHeight="1"/>
+    <row r="249" ht="12.75" customHeight="1"/>
+    <row r="250" ht="12.75" customHeight="1"/>
+    <row r="251" ht="12.75" customHeight="1"/>
+    <row r="252" ht="12.75" customHeight="1"/>
+    <row r="253" ht="12.75" customHeight="1"/>
+    <row r="254" ht="12.75" customHeight="1"/>
+    <row r="255" ht="12.75" customHeight="1"/>
+    <row r="256" ht="12.75" customHeight="1"/>
+    <row r="257" ht="12.75" customHeight="1"/>
+    <row r="258" ht="12.75" customHeight="1"/>
+    <row r="259" ht="12.75" customHeight="1"/>
+    <row r="260" ht="12.75" customHeight="1"/>
+    <row r="261" ht="12.75" customHeight="1"/>
+    <row r="262" ht="12.75" customHeight="1"/>
+    <row r="263" ht="12.75" customHeight="1"/>
+    <row r="264" ht="12.75" customHeight="1"/>
+    <row r="265" ht="12.75" customHeight="1"/>
+    <row r="266" ht="12.75" customHeight="1"/>
+    <row r="267" ht="12.75" customHeight="1"/>
+    <row r="268" ht="12.75" customHeight="1"/>
+    <row r="269" ht="12.75" customHeight="1"/>
+    <row r="270" ht="12.75" customHeight="1"/>
+    <row r="271" ht="12.75" customHeight="1"/>
+    <row r="272" ht="12.75" customHeight="1"/>
+    <row r="273" ht="12.75" customHeight="1"/>
+    <row r="274" ht="12.75" customHeight="1"/>
+    <row r="275" ht="12.75" customHeight="1"/>
+    <row r="276" ht="12.75" customHeight="1"/>
+    <row r="277" ht="12.75" customHeight="1"/>
+    <row r="278" ht="12.75" customHeight="1"/>
+    <row r="279" ht="12.75" customHeight="1"/>
+    <row r="280" ht="12.75" customHeight="1"/>
+    <row r="281" ht="12.75" customHeight="1"/>
+    <row r="282" ht="12.75" customHeight="1"/>
+    <row r="283" ht="12.75" customHeight="1"/>
+    <row r="284" ht="12.75" customHeight="1"/>
+    <row r="285" ht="12.75" customHeight="1"/>
+    <row r="286" ht="12.75" customHeight="1"/>
+    <row r="287" ht="12.75" customHeight="1"/>
+    <row r="288" ht="12.75" customHeight="1"/>
+    <row r="289" ht="12.75" customHeight="1"/>
+    <row r="290" ht="12.75" customHeight="1"/>
+    <row r="291" ht="12.75" customHeight="1"/>
+    <row r="292" ht="12.75" customHeight="1"/>
+    <row r="293" ht="12.75" customHeight="1"/>
+    <row r="294" ht="12.75" customHeight="1"/>
+    <row r="295" ht="12.75" customHeight="1"/>
+    <row r="296" ht="12.75" customHeight="1"/>
+    <row r="297" ht="12.75" customHeight="1"/>
+    <row r="298" ht="12.75" customHeight="1"/>
+    <row r="299" ht="12.75" customHeight="1"/>
+    <row r="300" ht="12.75" customHeight="1"/>
+    <row r="301" ht="12.75" customHeight="1"/>
+    <row r="302" ht="12.75" customHeight="1"/>
+    <row r="303" ht="12.75" customHeight="1"/>
+    <row r="304" ht="12.75" customHeight="1"/>
+    <row r="305" ht="12.75" customHeight="1"/>
+    <row r="306" ht="12.75" customHeight="1"/>
+    <row r="307" ht="12.75" customHeight="1"/>
+    <row r="308" ht="12.75" customHeight="1"/>
+    <row r="309" ht="12.75" customHeight="1"/>
+    <row r="310" ht="12.75" customHeight="1"/>
+    <row r="311" ht="12.75" customHeight="1"/>
+    <row r="312" ht="12.75" customHeight="1"/>
+    <row r="313" ht="12.75" customHeight="1"/>
+    <row r="314" ht="12.75" customHeight="1"/>
+    <row r="315" ht="12.75" customHeight="1"/>
+    <row r="316" ht="12.75" customHeight="1"/>
+    <row r="317" ht="12.75" customHeight="1"/>
+    <row r="318" ht="12.75" customHeight="1"/>
+    <row r="319" ht="12.75" customHeight="1"/>
+    <row r="320" ht="12.75" customHeight="1"/>
+    <row r="321" ht="12.75" customHeight="1"/>
+    <row r="322" ht="12.75" customHeight="1"/>
+    <row r="323" ht="12.75" customHeight="1"/>
+    <row r="324" ht="12.75" customHeight="1"/>
+    <row r="325" ht="12.75" customHeight="1"/>
+    <row r="326" ht="12.75" customHeight="1"/>
+    <row r="327" ht="12.75" customHeight="1"/>
+    <row r="328" ht="12.75" customHeight="1"/>
+    <row r="329" ht="12.75" customHeight="1"/>
+    <row r="330" ht="12.75" customHeight="1"/>
+    <row r="331" ht="12.75" customHeight="1"/>
+    <row r="332" ht="12.75" customHeight="1"/>
+    <row r="333" ht="12.75" customHeight="1"/>
+    <row r="334" ht="12.75" customHeight="1"/>
+    <row r="335" ht="12.75" customHeight="1"/>
+    <row r="336" ht="12.75" customHeight="1"/>
+    <row r="337" ht="12.75" customHeight="1"/>
+    <row r="338" ht="12.75" customHeight="1"/>
+    <row r="339" ht="12.75" customHeight="1"/>
+    <row r="340" ht="12.75" customHeight="1"/>
+    <row r="341" ht="12.75" customHeight="1"/>
+    <row r="342" ht="12.75" customHeight="1"/>
+    <row r="343" ht="12.75" customHeight="1"/>
+    <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
+    <row r="368" ht="12.75" customHeight="1"/>
+    <row r="369" ht="12.75" customHeight="1"/>
+    <row r="370" ht="12.75" customHeight="1"/>
+    <row r="371" ht="12.75" customHeight="1"/>
+    <row r="372" ht="12.75" customHeight="1"/>
+    <row r="373" ht="12.75" customHeight="1"/>
+    <row r="374" ht="12.75" customHeight="1"/>
+    <row r="375" ht="12.75" customHeight="1"/>
+    <row r="376" ht="12.75" customHeight="1"/>
+    <row r="377" ht="12.75" customHeight="1"/>
+    <row r="378" ht="12.75" customHeight="1"/>
+    <row r="379" ht="12.75" customHeight="1"/>
+    <row r="380" ht="12.75" customHeight="1"/>
+    <row r="381" ht="12.75" customHeight="1"/>
+    <row r="382" ht="12.75" customHeight="1"/>
+    <row r="383" ht="12.75" customHeight="1"/>
+    <row r="384" ht="12.75" customHeight="1"/>
+    <row r="385" ht="12.75" customHeight="1"/>
+    <row r="386" ht="12.75" customHeight="1"/>
+    <row r="387" ht="12.75" customHeight="1"/>
+    <row r="388" ht="12.75" customHeight="1"/>
+    <row r="389" ht="12.75" customHeight="1"/>
+    <row r="390" ht="12.75" customHeight="1"/>
+    <row r="391" ht="12.75" customHeight="1"/>
+    <row r="392" ht="12.75" customHeight="1"/>
+    <row r="393" ht="12.75" customHeight="1"/>
+    <row r="394" ht="12.75" customHeight="1"/>
+    <row r="395" ht="12.75" customHeight="1"/>
+    <row r="396" ht="12.75" customHeight="1"/>
+    <row r="397" ht="12.75" customHeight="1"/>
+    <row r="398" ht="12.75" customHeight="1"/>
+    <row r="399" ht="12.75" customHeight="1"/>
+    <row r="400" ht="12.75" customHeight="1"/>
+    <row r="401" ht="12.75" customHeight="1"/>
+    <row r="402" ht="12.75" customHeight="1"/>
+    <row r="403" ht="12.75" customHeight="1"/>
+    <row r="404" ht="12.75" customHeight="1"/>
+    <row r="405" ht="12.75" customHeight="1"/>
+    <row r="406" ht="12.75" customHeight="1"/>
+    <row r="407" ht="12.75" customHeight="1"/>
+    <row r="408" ht="12.75" customHeight="1"/>
+    <row r="409" ht="12.75" customHeight="1"/>
+    <row r="410" ht="12.75" customHeight="1"/>
+    <row r="411" ht="12.75" customHeight="1"/>
+    <row r="412" ht="12.75" customHeight="1"/>
+    <row r="413" ht="12.75" customHeight="1"/>
+    <row r="414" ht="12.75" customHeight="1"/>
+    <row r="415" ht="12.75" customHeight="1"/>
+    <row r="416" ht="12.75" customHeight="1"/>
+    <row r="417" ht="12.75" customHeight="1"/>
+    <row r="418" ht="12.75" customHeight="1"/>
+    <row r="419" ht="12.75" customHeight="1"/>
+    <row r="420" ht="12.75" customHeight="1"/>
+    <row r="421" ht="12.75" customHeight="1"/>
+    <row r="422" ht="12.75" customHeight="1"/>
+    <row r="423" ht="12.75" customHeight="1"/>
+    <row r="424" ht="12.75" customHeight="1"/>
+    <row r="425" ht="12.75" customHeight="1"/>
+    <row r="426" ht="12.75" customHeight="1"/>
+    <row r="427" ht="12.75" customHeight="1"/>
+    <row r="428" ht="12.75" customHeight="1"/>
+    <row r="429" ht="12.75" customHeight="1"/>
+    <row r="430" ht="12.75" customHeight="1"/>
+    <row r="431" ht="12.75" customHeight="1"/>
+    <row r="432" ht="12.75" customHeight="1"/>
+    <row r="433" ht="12.75" customHeight="1"/>
+    <row r="434" ht="12.75" customHeight="1"/>
+    <row r="435" ht="12.75" customHeight="1"/>
+    <row r="436" ht="12.75" customHeight="1"/>
+    <row r="437" ht="12.75" customHeight="1"/>
+    <row r="438" ht="12.75" customHeight="1"/>
+    <row r="439" ht="12.75" customHeight="1"/>
+    <row r="440" ht="12.75" customHeight="1"/>
+    <row r="441" ht="12.75" customHeight="1"/>
+    <row r="442" ht="12.75" customHeight="1"/>
+    <row r="443" ht="12.75" customHeight="1"/>
+    <row r="444" ht="12.75" customHeight="1"/>
+    <row r="445" ht="12.75" customHeight="1"/>
+    <row r="446" ht="12.75" customHeight="1"/>
+    <row r="447" ht="12.75" customHeight="1"/>
+    <row r="448" ht="12.75" customHeight="1"/>
+    <row r="449" ht="12.75" customHeight="1"/>
+    <row r="450" ht="12.75" customHeight="1"/>
+    <row r="451" ht="12.75" customHeight="1"/>
+    <row r="452" ht="12.75" customHeight="1"/>
+    <row r="453" ht="12.75" customHeight="1"/>
+    <row r="454" ht="12.75" customHeight="1"/>
+    <row r="455" ht="12.75" customHeight="1"/>
+    <row r="456" ht="12.75" customHeight="1"/>
+    <row r="457" ht="12.75" customHeight="1"/>
+    <row r="458" ht="12.75" customHeight="1"/>
+    <row r="459" ht="12.75" customHeight="1"/>
+    <row r="460" ht="12.75" customHeight="1"/>
+    <row r="461" ht="12.75" customHeight="1"/>
+    <row r="462" ht="12.75" customHeight="1"/>
+    <row r="463" ht="12.75" customHeight="1"/>
+    <row r="464" ht="12.75" customHeight="1"/>
+    <row r="465" ht="12.75" customHeight="1"/>
+    <row r="466" ht="12.75" customHeight="1"/>
+    <row r="467" ht="12.75" customHeight="1"/>
+    <row r="468" ht="12.75" customHeight="1"/>
+    <row r="469" ht="12.75" customHeight="1"/>
+    <row r="470" ht="12.75" customHeight="1"/>
+    <row r="471" ht="12.75" customHeight="1"/>
+    <row r="472" ht="12.75" customHeight="1"/>
+    <row r="473" ht="12.75" customHeight="1"/>
+    <row r="474" ht="12.75" customHeight="1"/>
+    <row r="475" ht="12.75" customHeight="1"/>
+    <row r="476" ht="12.75" customHeight="1"/>
+    <row r="477" ht="12.75" customHeight="1"/>
+    <row r="478" ht="12.75" customHeight="1"/>
+    <row r="479" ht="12.75" customHeight="1"/>
+    <row r="480" ht="12.75" customHeight="1"/>
+    <row r="481" ht="12.75" customHeight="1"/>
+    <row r="482" ht="12.75" customHeight="1"/>
+    <row r="483" ht="12.75" customHeight="1"/>
+    <row r="484" ht="12.75" customHeight="1"/>
+    <row r="485" ht="12.75" customHeight="1"/>
+    <row r="486" ht="12.75" customHeight="1"/>
+    <row r="487" ht="12.75" customHeight="1"/>
+    <row r="488" ht="12.75" customHeight="1"/>
+    <row r="489" ht="12.75" customHeight="1"/>
+    <row r="490" ht="12.75" customHeight="1"/>
+    <row r="491" ht="12.75" customHeight="1"/>
+    <row r="492" ht="12.75" customHeight="1"/>
+    <row r="493" ht="12.75" customHeight="1"/>
+    <row r="494" ht="12.75" customHeight="1"/>
+    <row r="495" ht="12.75" customHeight="1"/>
+    <row r="496" ht="12.75" customHeight="1"/>
+    <row r="497" ht="12.75" customHeight="1"/>
+    <row r="498" ht="12.75" customHeight="1"/>
+    <row r="499" ht="12.75" customHeight="1"/>
+    <row r="500" ht="12.75" customHeight="1"/>
+    <row r="501" ht="12.75" customHeight="1"/>
+    <row r="502" ht="12.75" customHeight="1"/>
+    <row r="503" ht="12.75" customHeight="1"/>
+    <row r="504" ht="12.75" customHeight="1"/>
+    <row r="505" ht="12.75" customHeight="1"/>
+    <row r="506" ht="12.75" customHeight="1"/>
+    <row r="507" ht="12.75" customHeight="1"/>
+    <row r="508" ht="12.75" customHeight="1"/>
+    <row r="509" ht="12.75" customHeight="1"/>
+    <row r="510" ht="12.75" customHeight="1"/>
+    <row r="511" ht="12.75" customHeight="1"/>
+    <row r="512" ht="12.75" customHeight="1"/>
+    <row r="513" ht="12.75" customHeight="1"/>
+    <row r="514" ht="12.75" customHeight="1"/>
+    <row r="515" ht="12.75" customHeight="1"/>
+    <row r="516" ht="12.75" customHeight="1"/>
+    <row r="517" ht="12.75" customHeight="1"/>
+    <row r="518" ht="12.75" customHeight="1"/>
+    <row r="519" ht="12.75" customHeight="1"/>
+    <row r="520" ht="12.75" customHeight="1"/>
+    <row r="521" ht="12.75" customHeight="1"/>
+    <row r="522" ht="12.75" customHeight="1"/>
+    <row r="523" ht="12.75" customHeight="1"/>
+    <row r="524" ht="12.75" customHeight="1"/>
+    <row r="525" ht="12.75" customHeight="1"/>
+    <row r="526" ht="12.75" customHeight="1"/>
+    <row r="527" ht="12.75" customHeight="1"/>
+    <row r="528" ht="12.75" customHeight="1"/>
+    <row r="529" ht="12.75" customHeight="1"/>
+    <row r="530" ht="12.75" customHeight="1"/>
+    <row r="531" ht="12.75" customHeight="1"/>
+    <row r="532" ht="12.75" customHeight="1"/>
+    <row r="533" ht="12.75" customHeight="1"/>
+    <row r="534" ht="12.75" customHeight="1"/>
+    <row r="535" ht="12.75" customHeight="1"/>
+    <row r="536" ht="12.75" customHeight="1"/>
+    <row r="537" ht="12.75" customHeight="1"/>
+    <row r="538" ht="12.75" customHeight="1"/>
+    <row r="539" ht="12.75" customHeight="1"/>
+    <row r="540" ht="12.75" customHeight="1"/>
+    <row r="541" ht="12.75" customHeight="1"/>
+    <row r="542" ht="12.75" customHeight="1"/>
+    <row r="543" ht="12.75" customHeight="1"/>
+    <row r="544" ht="12.75" customHeight="1"/>
+    <row r="545" ht="12.75" customHeight="1"/>
+    <row r="546" ht="12.75" customHeight="1"/>
+    <row r="547" ht="12.75" customHeight="1"/>
+    <row r="548" ht="12.75" customHeight="1"/>
+    <row r="549" ht="12.75" customHeight="1"/>
+    <row r="550" ht="12.75" customHeight="1"/>
+    <row r="551" ht="12.75" customHeight="1"/>
+    <row r="552" ht="12.75" customHeight="1"/>
+    <row r="553" ht="12.75" customHeight="1"/>
+    <row r="554" ht="12.75" customHeight="1"/>
+    <row r="555" ht="12.75" customHeight="1"/>
+    <row r="556" ht="12.75" customHeight="1"/>
+    <row r="557" ht="12.75" customHeight="1"/>
+    <row r="558" ht="12.75" customHeight="1"/>
+    <row r="559" ht="12.75" customHeight="1"/>
+    <row r="560" ht="12.75" customHeight="1"/>
+    <row r="561" ht="12.75" customHeight="1"/>
+    <row r="562" ht="12.75" customHeight="1"/>
+    <row r="563" ht="12.75" customHeight="1"/>
+    <row r="564" ht="12.75" customHeight="1"/>
+    <row r="565" ht="12.75" customHeight="1"/>
+    <row r="566" ht="12.75" customHeight="1"/>
+    <row r="567" ht="12.75" customHeight="1"/>
+    <row r="568" ht="12.75" customHeight="1"/>
+    <row r="569" ht="12.75" customHeight="1"/>
+    <row r="570" ht="12.75" customHeight="1"/>
+    <row r="571" ht="12.75" customHeight="1"/>
+    <row r="572" ht="12.75" customHeight="1"/>
+    <row r="573" ht="12.75" customHeight="1"/>
+    <row r="574" ht="12.75" customHeight="1"/>
+    <row r="575" ht="12.75" customHeight="1"/>
+    <row r="576" ht="12.75" customHeight="1"/>
+    <row r="577" ht="12.75" customHeight="1"/>
+    <row r="578" ht="12.75" customHeight="1"/>
+    <row r="579" ht="12.75" customHeight="1"/>
+    <row r="580" ht="12.75" customHeight="1"/>
+    <row r="581" ht="12.75" customHeight="1"/>
+    <row r="582" ht="12.75" customHeight="1"/>
+    <row r="583" ht="12.75" customHeight="1"/>
+    <row r="584" ht="12.75" customHeight="1"/>
+    <row r="585" ht="12.75" customHeight="1"/>
+    <row r="586" ht="12.75" customHeight="1"/>
+    <row r="587" ht="12.75" customHeight="1"/>
+    <row r="588" ht="12.75" customHeight="1"/>
+    <row r="589" ht="12.75" customHeight="1"/>
+    <row r="590" ht="12.75" customHeight="1"/>
+    <row r="591" ht="12.75" customHeight="1"/>
+    <row r="592" ht="12.75" customHeight="1"/>
+    <row r="593" ht="12.75" customHeight="1"/>
+    <row r="594" ht="12.75" customHeight="1"/>
+    <row r="595" ht="12.75" customHeight="1"/>
+    <row r="596" ht="12.75" customHeight="1"/>
+    <row r="597" ht="12.75" customHeight="1"/>
+    <row r="598" ht="12.75" customHeight="1"/>
+    <row r="599" ht="12.75" customHeight="1"/>
+    <row r="600" ht="12.75" customHeight="1"/>
+    <row r="601" ht="12.75" customHeight="1"/>
+    <row r="602" ht="12.75" customHeight="1"/>
+    <row r="603" ht="12.75" customHeight="1"/>
+    <row r="604" ht="12.75" customHeight="1"/>
+    <row r="605" ht="12.75" customHeight="1"/>
+    <row r="606" ht="12.75" customHeight="1"/>
+    <row r="607" ht="12.75" customHeight="1"/>
+    <row r="608" ht="12.75" customHeight="1"/>
+    <row r="609" ht="12.75" customHeight="1"/>
+    <row r="610" ht="12.75" customHeight="1"/>
+    <row r="611" ht="12.75" customHeight="1"/>
+    <row r="612" ht="12.75" customHeight="1"/>
+    <row r="613" ht="12.75" customHeight="1"/>
+    <row r="614" ht="12.75" customHeight="1"/>
+    <row r="615" ht="12.75" customHeight="1"/>
+    <row r="616" ht="12.75" customHeight="1"/>
+    <row r="617" ht="12.75" customHeight="1"/>
+    <row r="618" ht="12.75" customHeight="1"/>
+    <row r="619" ht="12.75" customHeight="1"/>
+    <row r="620" ht="12.75" customHeight="1"/>
+    <row r="621" ht="12.75" customHeight="1"/>
+    <row r="622" ht="12.75" customHeight="1"/>
+    <row r="623" ht="12.75" customHeight="1"/>
+    <row r="624" ht="12.75" customHeight="1"/>
+    <row r="625" ht="12.75" customHeight="1"/>
+    <row r="626" ht="12.75" customHeight="1"/>
+    <row r="627" ht="12.75" customHeight="1"/>
+    <row r="628" ht="12.75" customHeight="1"/>
+    <row r="629" ht="12.75" customHeight="1"/>
+    <row r="630" ht="12.75" customHeight="1"/>
+    <row r="631" ht="12.75" customHeight="1"/>
+    <row r="632" ht="12.75" customHeight="1"/>
+    <row r="633" ht="12.75" customHeight="1"/>
+    <row r="634" ht="12.75" customHeight="1"/>
+    <row r="635" ht="12.75" customHeight="1"/>
+    <row r="636" ht="12.75" customHeight="1"/>
+    <row r="637" ht="12.75" customHeight="1"/>
+    <row r="638" ht="12.75" customHeight="1"/>
+    <row r="639" ht="12.75" customHeight="1"/>
+    <row r="640" ht="12.75" customHeight="1"/>
+    <row r="641" ht="12.75" customHeight="1"/>
+    <row r="642" ht="12.75" customHeight="1"/>
+    <row r="643" ht="12.75" customHeight="1"/>
+    <row r="644" ht="12.75" customHeight="1"/>
+    <row r="645" ht="12.75" customHeight="1"/>
+    <row r="646" ht="12.75" customHeight="1"/>
+    <row r="647" ht="12.75" customHeight="1"/>
+    <row r="648" ht="12.75" customHeight="1"/>
+    <row r="649" ht="12.75" customHeight="1"/>
+    <row r="650" ht="12.75" customHeight="1"/>
+    <row r="651" ht="12.75" customHeight="1"/>
+    <row r="652" ht="12.75" customHeight="1"/>
+    <row r="653" ht="12.75" customHeight="1"/>
+    <row r="654" ht="12.75" customHeight="1"/>
+    <row r="655" ht="12.75" customHeight="1"/>
+    <row r="656" ht="12.75" customHeight="1"/>
+    <row r="657" ht="12.75" customHeight="1"/>
+    <row r="658" ht="12.75" customHeight="1"/>
+    <row r="659" ht="12.75" customHeight="1"/>
+    <row r="660" ht="12.75" customHeight="1"/>
+    <row r="661" ht="12.75" customHeight="1"/>
+    <row r="662" ht="12.75" customHeight="1"/>
+    <row r="663" ht="12.75" customHeight="1"/>
+    <row r="664" ht="12.75" customHeight="1"/>
+    <row r="665" ht="12.75" customHeight="1"/>
+    <row r="666" ht="12.75" customHeight="1"/>
+    <row r="667" ht="12.75" customHeight="1"/>
+    <row r="668" ht="12.75" customHeight="1"/>
+    <row r="669" ht="12.75" customHeight="1"/>
+    <row r="670" ht="12.75" customHeight="1"/>
+    <row r="671" ht="12.75" customHeight="1"/>
+    <row r="672" ht="12.75" customHeight="1"/>
+    <row r="673" ht="12.75" customHeight="1"/>
+    <row r="674" ht="12.75" customHeight="1"/>
+    <row r="675" ht="12.75" customHeight="1"/>
+    <row r="676" ht="12.75" customHeight="1"/>
+    <row r="677" ht="12.75" customHeight="1"/>
+    <row r="678" ht="12.75" customHeight="1"/>
+    <row r="679" ht="12.75" customHeight="1"/>
+    <row r="680" ht="12.75" customHeight="1"/>
+    <row r="681" ht="12.75" customHeight="1"/>
+    <row r="682" ht="12.75" customHeight="1"/>
+    <row r="683" ht="12.75" customHeight="1"/>
+    <row r="684" ht="12.75" customHeight="1"/>
+    <row r="685" ht="12.75" customHeight="1"/>
+    <row r="686" ht="12.75" customHeight="1"/>
+    <row r="687" ht="12.75" customHeight="1"/>
+    <row r="688" ht="12.75" customHeight="1"/>
+    <row r="689" ht="12.75" customHeight="1"/>
+    <row r="690" ht="12.75" customHeight="1"/>
+    <row r="691" ht="12.75" customHeight="1"/>
+    <row r="692" ht="12.75" customHeight="1"/>
+    <row r="693" ht="12.75" customHeight="1"/>
+    <row r="694" ht="12.75" customHeight="1"/>
+    <row r="695" ht="12.75" customHeight="1"/>
+    <row r="696" ht="12.75" customHeight="1"/>
+    <row r="697" ht="12.75" customHeight="1"/>
+    <row r="698" ht="12.75" customHeight="1"/>
+    <row r="699" ht="12.75" customHeight="1"/>
+    <row r="700" ht="12.75" customHeight="1"/>
+    <row r="701" ht="12.75" customHeight="1"/>
+    <row r="702" ht="12.75" customHeight="1"/>
+    <row r="703" ht="12.75" customHeight="1"/>
+    <row r="704" ht="12.75" customHeight="1"/>
+    <row r="705" ht="12.75" customHeight="1"/>
+    <row r="706" ht="12.75" customHeight="1"/>
+    <row r="707" ht="12.75" customHeight="1"/>
+    <row r="708" ht="12.75" customHeight="1"/>
+    <row r="709" ht="12.75" customHeight="1"/>
+    <row r="710" ht="12.75" customHeight="1"/>
+    <row r="711" ht="12.75" customHeight="1"/>
+    <row r="712" ht="12.75" customHeight="1"/>
+    <row r="713" ht="12.75" customHeight="1"/>
+    <row r="714" ht="12.75" customHeight="1"/>
+    <row r="715" ht="12.75" customHeight="1"/>
+    <row r="716" ht="12.75" customHeight="1"/>
+    <row r="717" ht="12.75" customHeight="1"/>
+    <row r="718" ht="12.75" customHeight="1"/>
+    <row r="719" ht="12.75" customHeight="1"/>
+    <row r="720" ht="12.75" customHeight="1"/>
+    <row r="721" ht="12.75" customHeight="1"/>
+    <row r="722" ht="12.75" customHeight="1"/>
+    <row r="723" ht="12.75" customHeight="1"/>
+    <row r="724" ht="12.75" customHeight="1"/>
+    <row r="725" ht="12.75" customHeight="1"/>
+    <row r="726" ht="12.75" customHeight="1"/>
+    <row r="727" ht="12.75" customHeight="1"/>
+    <row r="728" ht="12.75" customHeight="1"/>
+    <row r="729" ht="12.75" customHeight="1"/>
+    <row r="730" ht="12.75" customHeight="1"/>
+    <row r="731" ht="12.75" customHeight="1"/>
+    <row r="732" ht="12.75" customHeight="1"/>
+    <row r="733" ht="12.75" customHeight="1"/>
+    <row r="734" ht="12.75" customHeight="1"/>
+    <row r="735" ht="12.75" customHeight="1"/>
+    <row r="736" ht="12.75" customHeight="1"/>
+    <row r="737" ht="12.75" customHeight="1"/>
+    <row r="738" ht="12.75" customHeight="1"/>
+    <row r="739" ht="12.75" customHeight="1"/>
+    <row r="740" ht="12.75" customHeight="1"/>
+    <row r="741" ht="12.75" customHeight="1"/>
+    <row r="742" ht="12.75" customHeight="1"/>
+    <row r="743" ht="12.75" customHeight="1"/>
+    <row r="744" ht="12.75" customHeight="1"/>
+    <row r="745" ht="12.75" customHeight="1"/>
+    <row r="746" ht="12.75" customHeight="1"/>
+    <row r="747" ht="12.75" customHeight="1"/>
+    <row r="748" ht="12.75" customHeight="1"/>
+    <row r="749" ht="12.75" customHeight="1"/>
+    <row r="750" ht="12.75" customHeight="1"/>
+    <row r="751" ht="12.75" customHeight="1"/>
+    <row r="752" ht="12.75" customHeight="1"/>
+    <row r="753" ht="12.75" customHeight="1"/>
+    <row r="754" ht="12.75" customHeight="1"/>
+    <row r="755" ht="12.75" customHeight="1"/>
+    <row r="756" ht="12.75" customHeight="1"/>
+    <row r="757" ht="12.75" customHeight="1"/>
+    <row r="758" ht="12.75" customHeight="1"/>
+    <row r="759" ht="12.75" customHeight="1"/>
+    <row r="760" ht="12.75" customHeight="1"/>
+    <row r="761" ht="12.75" customHeight="1"/>
+    <row r="762" ht="12.75" customHeight="1"/>
+    <row r="763" ht="12.75" customHeight="1"/>
+    <row r="764" ht="12.75" customHeight="1"/>
+    <row r="765" ht="12.75" customHeight="1"/>
+    <row r="766" ht="12.75" customHeight="1"/>
+    <row r="767" ht="12.75" customHeight="1"/>
+    <row r="768" ht="12.75" customHeight="1"/>
+    <row r="769" ht="12.75" customHeight="1"/>
+    <row r="770" ht="12.75" customHeight="1"/>
+    <row r="771" ht="12.75" customHeight="1"/>
+    <row r="772" ht="12.75" customHeight="1"/>
+    <row r="773" ht="12.75" customHeight="1"/>
+    <row r="774" ht="12.75" customHeight="1"/>
+    <row r="775" ht="12.75" customHeight="1"/>
+    <row r="776" ht="12.75" customHeight="1"/>
+    <row r="777" ht="12.75" customHeight="1"/>
+    <row r="778" ht="12.75" customHeight="1"/>
+    <row r="779" ht="12.75" customHeight="1"/>
+    <row r="780" ht="12.75" customHeight="1"/>
+    <row r="781" ht="12.75" customHeight="1"/>
+    <row r="782" ht="12.75" customHeight="1"/>
+    <row r="783" ht="12.75" customHeight="1"/>
+    <row r="784" ht="12.75" customHeight="1"/>
+    <row r="785" ht="12.75" customHeight="1"/>
+    <row r="786" ht="12.75" customHeight="1"/>
+    <row r="787" ht="12.75" customHeight="1"/>
+    <row r="788" ht="12.75" customHeight="1"/>
+    <row r="789" ht="12.75" customHeight="1"/>
+    <row r="790" ht="12.75" customHeight="1"/>
+    <row r="791" ht="12.75" customHeight="1"/>
+    <row r="792" ht="12.75" customHeight="1"/>
+    <row r="793" ht="12.75" customHeight="1"/>
+    <row r="794" ht="12.75" customHeight="1"/>
+    <row r="795" ht="12.75" customHeight="1"/>
+    <row r="796" ht="12.75" customHeight="1"/>
+    <row r="797" ht="12.75" customHeight="1"/>
+    <row r="798" ht="12.75" customHeight="1"/>
+    <row r="799" ht="12.75" customHeight="1"/>
+    <row r="800" ht="12.75" customHeight="1"/>
+    <row r="801" ht="12.75" customHeight="1"/>
+    <row r="802" ht="12.75" customHeight="1"/>
+    <row r="803" ht="12.75" customHeight="1"/>
+    <row r="804" ht="12.75" customHeight="1"/>
+    <row r="805" ht="12.75" customHeight="1"/>
+    <row r="806" ht="12.75" customHeight="1"/>
+    <row r="807" ht="12.75" customHeight="1"/>
+    <row r="808" ht="12.75" customHeight="1"/>
+    <row r="809" ht="12.75" customHeight="1"/>
+    <row r="810" ht="12.75" customHeight="1"/>
+    <row r="811" ht="12.75" customHeight="1"/>
+    <row r="812" ht="12.75" customHeight="1"/>
+    <row r="813" ht="12.75" customHeight="1"/>
+    <row r="814" ht="12.75" customHeight="1"/>
+    <row r="815" ht="12.75" customHeight="1"/>
+    <row r="816" ht="12.75" customHeight="1"/>
+    <row r="817" ht="12.75" customHeight="1"/>
+    <row r="818" ht="12.75" customHeight="1"/>
+    <row r="819" ht="12.75" customHeight="1"/>
+    <row r="820" ht="12.75" customHeight="1"/>
+    <row r="821" ht="12.75" customHeight="1"/>
+    <row r="822" ht="12.75" customHeight="1"/>
+    <row r="823" ht="12.75" customHeight="1"/>
+    <row r="824" ht="12.75" customHeight="1"/>
+    <row r="825" ht="12.75" customHeight="1"/>
+    <row r="826" ht="12.75" customHeight="1"/>
+    <row r="827" ht="12.75" customHeight="1"/>
+    <row r="828" ht="12.75" customHeight="1"/>
+    <row r="829" ht="12.75" customHeight="1"/>
+    <row r="830" ht="12.75" customHeight="1"/>
+    <row r="831" ht="12.75" customHeight="1"/>
+    <row r="832" ht="12.75" customHeight="1"/>
+    <row r="833" ht="12.75" customHeight="1"/>
+    <row r="834" ht="12.75" customHeight="1"/>
+    <row r="835" ht="12.75" customHeight="1"/>
+    <row r="836" ht="12.75" customHeight="1"/>
+    <row r="837" ht="12.75" customHeight="1"/>
+    <row r="838" ht="12.75" customHeight="1"/>
+    <row r="839" ht="12.75" customHeight="1"/>
+    <row r="840" ht="12.75" customHeight="1"/>
+    <row r="841" ht="12.75" customHeight="1"/>
+    <row r="842" ht="12.75" customHeight="1"/>
+    <row r="843" ht="12.75" customHeight="1"/>
+    <row r="844" ht="12.75" customHeight="1"/>
+    <row r="845" ht="12.75" customHeight="1"/>
+    <row r="846" ht="12.75" customHeight="1"/>
+    <row r="847" ht="12.75" customHeight="1"/>
+    <row r="848" ht="12.75" customHeight="1"/>
+    <row r="849" ht="12.75" customHeight="1"/>
+    <row r="850" ht="12.75" customHeight="1"/>
+    <row r="851" ht="12.75" customHeight="1"/>
+    <row r="852" ht="12.75" customHeight="1"/>
+    <row r="853" ht="12.75" customHeight="1"/>
+    <row r="854" ht="12.75" customHeight="1"/>
+    <row r="855" ht="12.75" customHeight="1"/>
+    <row r="856" ht="12.75" customHeight="1"/>
+    <row r="857" ht="12.75" customHeight="1"/>
+    <row r="858" ht="12.75" customHeight="1"/>
+    <row r="859" ht="12.75" customHeight="1"/>
+    <row r="860" ht="12.75" customHeight="1"/>
+    <row r="861" ht="12.75" customHeight="1"/>
+    <row r="862" ht="12.75" customHeight="1"/>
+    <row r="863" ht="12.75" customHeight="1"/>
+    <row r="864" ht="12.75" customHeight="1"/>
+    <row r="865" ht="12.75" customHeight="1"/>
+    <row r="866" ht="12.75" customHeight="1"/>
+    <row r="867" ht="12.75" customHeight="1"/>
+    <row r="868" ht="12.75" customHeight="1"/>
+    <row r="869" ht="12.75" customHeight="1"/>
+    <row r="870" ht="12.75" customHeight="1"/>
+    <row r="871" ht="12.75" customHeight="1"/>
+    <row r="872" ht="12.75" customHeight="1"/>
+    <row r="873" ht="12.75" customHeight="1"/>
+    <row r="874" ht="12.75" customHeight="1"/>
+    <row r="875" ht="12.75" customHeight="1"/>
+    <row r="876" ht="12.75" customHeight="1"/>
+    <row r="877" ht="12.75" customHeight="1"/>
+    <row r="878" ht="12.75" customHeight="1"/>
+    <row r="879" ht="12.75" customHeight="1"/>
+    <row r="880" ht="12.75" customHeight="1"/>
+    <row r="881" ht="12.75" customHeight="1"/>
+    <row r="882" ht="12.75" customHeight="1"/>
+    <row r="883" ht="12.75" customHeight="1"/>
+    <row r="884" ht="12.75" customHeight="1"/>
+    <row r="885" ht="12.75" customHeight="1"/>
+    <row r="886" ht="12.75" customHeight="1"/>
+    <row r="887" ht="12.75" customHeight="1"/>
+    <row r="888" ht="12.75" customHeight="1"/>
+    <row r="889" ht="12.75" customHeight="1"/>
+    <row r="890" ht="12.75" customHeight="1"/>
+    <row r="891" ht="12.75" customHeight="1"/>
+    <row r="892" ht="12.75" customHeight="1"/>
+    <row r="893" ht="12.75" customHeight="1"/>
+    <row r="894" ht="12.75" customHeight="1"/>
+    <row r="895" ht="12.75" customHeight="1"/>
+    <row r="896" ht="12.75" customHeight="1"/>
+    <row r="897" ht="12.75" customHeight="1"/>
+    <row r="898" ht="12.75" customHeight="1"/>
+    <row r="899" ht="12.75" customHeight="1"/>
+    <row r="900" ht="12.75" customHeight="1"/>
+    <row r="901" ht="12.75" customHeight="1"/>
+    <row r="902" ht="12.75" customHeight="1"/>
+    <row r="903" ht="12.75" customHeight="1"/>
+    <row r="904" ht="12.75" customHeight="1"/>
+    <row r="905" ht="12.75" customHeight="1"/>
+    <row r="906" ht="12.75" customHeight="1"/>
+    <row r="907" ht="12.75" customHeight="1"/>
+    <row r="908" ht="12.75" customHeight="1"/>
+    <row r="909" ht="12.75" customHeight="1"/>
+    <row r="910" ht="12.75" customHeight="1"/>
+    <row r="911" ht="12.75" customHeight="1"/>
+    <row r="912" ht="12.75" customHeight="1"/>
+    <row r="913" ht="12.75" customHeight="1"/>
+    <row r="914" ht="12.75" customHeight="1"/>
+    <row r="915" ht="12.75" customHeight="1"/>
+    <row r="916" ht="12.75" customHeight="1"/>
+    <row r="917" ht="12.75" customHeight="1"/>
+    <row r="918" ht="12.75" customHeight="1"/>
+    <row r="919" ht="12.75" customHeight="1"/>
+    <row r="920" ht="12.75" customHeight="1"/>
+    <row r="921" ht="12.75" customHeight="1"/>
+    <row r="922" ht="12.75" customHeight="1"/>
+    <row r="923" ht="12.75" customHeight="1"/>
+    <row r="924" ht="12.75" customHeight="1"/>
+    <row r="925" ht="12.75" customHeight="1"/>
+    <row r="926" ht="12.75" customHeight="1"/>
+    <row r="927" ht="12.75" customHeight="1"/>
+    <row r="928" ht="12.75" customHeight="1"/>
+    <row r="929" ht="12.75" customHeight="1"/>
+    <row r="930" ht="12.75" customHeight="1"/>
+    <row r="931" ht="12.75" customHeight="1"/>
+    <row r="932" ht="12.75" customHeight="1"/>
+    <row r="933" ht="12.75" customHeight="1"/>
+    <row r="934" ht="12.75" customHeight="1"/>
+    <row r="935" ht="12.75" customHeight="1"/>
+    <row r="936" ht="12.75" customHeight="1"/>
+    <row r="937" ht="12.75" customHeight="1"/>
+    <row r="938" ht="12.75" customHeight="1"/>
+    <row r="939" ht="12.75" customHeight="1"/>
+    <row r="940" ht="12.75" customHeight="1"/>
+    <row r="941" ht="12.75" customHeight="1"/>
+    <row r="942" ht="12.75" customHeight="1"/>
+    <row r="943" ht="12.75" customHeight="1"/>
+    <row r="944" ht="12.75" customHeight="1"/>
+    <row r="945" ht="12.75" customHeight="1"/>
+    <row r="946" ht="12.75" customHeight="1"/>
+    <row r="947" ht="12.75" customHeight="1"/>
+    <row r="948" ht="12.75" customHeight="1"/>
+    <row r="949" ht="12.75" customHeight="1"/>
+    <row r="950" ht="12.75" customHeight="1"/>
+    <row r="951" ht="12.75" customHeight="1"/>
+    <row r="952" ht="12.75" customHeight="1"/>
+    <row r="953" ht="12.75" customHeight="1"/>
+    <row r="954" ht="12.75" customHeight="1"/>
+    <row r="955" ht="12.75" customHeight="1"/>
+    <row r="956" ht="12.75" customHeight="1"/>
+    <row r="957" ht="12.75" customHeight="1"/>
+    <row r="958" ht="12.75" customHeight="1"/>
+    <row r="959" ht="12.75" customHeight="1"/>
+    <row r="960" ht="12.75" customHeight="1"/>
+    <row r="961" ht="12.75" customHeight="1"/>
+    <row r="962" ht="12.75" customHeight="1"/>
+    <row r="963" ht="12.75" customHeight="1"/>
+    <row r="964" ht="12.75" customHeight="1"/>
+    <row r="965" ht="12.75" customHeight="1"/>
+    <row r="966" ht="12.75" customHeight="1"/>
+    <row r="967" ht="12.75" customHeight="1"/>
+    <row r="968" ht="12.75" customHeight="1"/>
+    <row r="969" ht="12.75" customHeight="1"/>
+    <row r="970" ht="12.75" customHeight="1"/>
+    <row r="971" ht="12.75" customHeight="1"/>
+    <row r="972" ht="12.75" customHeight="1"/>
+    <row r="973" ht="12.75" customHeight="1"/>
+    <row r="974" ht="12.75" customHeight="1"/>
+    <row r="975" ht="12.75" customHeight="1"/>
+    <row r="976" ht="12.75" customHeight="1"/>
+    <row r="977" ht="12.75" customHeight="1"/>
+    <row r="978" ht="12.75" customHeight="1"/>
+    <row r="979" ht="12.75" customHeight="1"/>
+    <row r="980" ht="12.75" customHeight="1"/>
+    <row r="981" ht="12.75" customHeight="1"/>
+    <row r="982" ht="12.75" customHeight="1"/>
+    <row r="983" ht="12.75" customHeight="1"/>
+    <row r="984" ht="12.75" customHeight="1"/>
+    <row r="985" ht="12.75" customHeight="1"/>
+    <row r="986" ht="12.75" customHeight="1"/>
+    <row r="987" ht="12.75" customHeight="1"/>
+    <row r="988" ht="12.75" customHeight="1"/>
+    <row r="989" ht="12.75" customHeight="1"/>
+    <row r="990" ht="12.75" customHeight="1"/>
+    <row r="991" ht="12.75" customHeight="1"/>
+    <row r="992" ht="12.75" customHeight="1"/>
+    <row r="993" ht="12.75" customHeight="1"/>
+    <row r="994" ht="12.75" customHeight="1"/>
+    <row r="995" ht="12.75" customHeight="1"/>
+    <row r="996" ht="12.75" customHeight="1"/>
+    <row r="997" ht="12.75" customHeight="1"/>
+    <row r="998" ht="12.75" customHeight="1"/>
+    <row r="999" ht="12.75" customHeight="1"/>
+    <row r="1000" ht="12.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions/>
+  <pageMargins bottom="1.05277777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/backend/web/samples/Universitie-Programs.xlsx
+++ b/backend/web/samples/Universitie-Programs.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
   <si>
     <t xml:space="preserve">Program Name</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bank Statment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bank Statment Active</t>
   </si>
   <si>
     <t xml:space="preserve">Annual Cost</t>
@@ -237,7 +240,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -267,6 +270,13 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -318,7 +328,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -327,11 +337,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -364,13 +378,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB4"/>
+  <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R4" activeCellId="0" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
@@ -387,12 +401,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="22.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="18" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="22.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="19.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="0" width="27.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="24" style="0" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="19.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="18" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="22.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="19.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="0" width="27.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="25" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="19.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -447,7 +461,7 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
@@ -480,177 +494,186 @@
       <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="F2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="4" t="n">
+      <c r="H2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="5" t="n">
         <v>44036</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="4" t="n">
+      <c r="J2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="5" t="n">
         <v>44128</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="2" t="n">
+      <c r="P2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="3" t="n">
         <v>5000</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="3" t="n">
         <v>25000</v>
       </c>
-      <c r="S2" s="2" t="n">
+      <c r="T2" s="3" t="n">
         <v>150</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="4" t="s">
         <v>43</v>
       </c>
       <c r="W2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="4" t="s">
         <v>45</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="4" t="s">
         <v>47</v>
       </c>
       <c r="AA2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="4" t="s">
         <v>49</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="2" t="n">
+      <c r="F3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" s="4" t="n">
+      <c r="H3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="5" t="n">
         <v>44098</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K3" s="4" t="n">
+      <c r="J3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" s="5" t="n">
         <v>44189</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="N3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="O3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" s="2" t="n">
+      <c r="P3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="3" t="n">
         <v>1000</v>
       </c>
-      <c r="R3" s="2" t="n">
+      <c r="R3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S3" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="S3" s="2" t="n">
+      <c r="T3" s="3" t="n">
         <v>60</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="4" t="s">
         <v>64</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="X3" s="2" t="s">
-        <v>45</v>
+      <c r="X3" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="Y3" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="AA3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB3" s="4" t="s">
         <v>68</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
